--- a/studies/2020_Aperol_Git/2020_Aperol_Subjects and Labels_ALT_MOVED_TO_BOARD.xlsx
+++ b/studies/2020_Aperol_Git/2020_Aperol_Subjects and Labels_ALT_MOVED_TO_BOARD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\studies\2020_Aperol_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADB8B1B-62BE-4B4C-8301-1E0E94C27A63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7ADB8B1B-62BE-4B4C-8301-1E0E94C27A63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D61E84AF-8C8F-48BE-887C-F2CA4EF00CDB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subjectlist&amp;labels" sheetId="8" r:id="rId1"/>
@@ -1352,7 +1352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1527,12 +1527,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1936,6 +1945,34 @@
     <xf numFmtId="49" fontId="42" fillId="29" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -2335,7 +2372,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3645,8 +3682,8 @@
         <v>267</v>
       </c>
       <c r="K12" s="173" t="str">
-        <f>CONCATENATE(C12,"_",D12,F12,"_",G12)</f>
-        <v>Aperol_pilot02_expert</v>
+        <f>CONCATENATE(C12,"_",D12,"_",E12,"_",F12,"_",G12,"_",Q12)</f>
+        <v>Aperol_pilot_01_02_expert_A</v>
       </c>
       <c r="L12" s="173" t="s">
         <v>263</v>
@@ -4795,8 +4832,8 @@
         <v>267</v>
       </c>
       <c r="K22" s="173" t="str">
-        <f>CONCATENATE(C22,"_",D22,F22,"_",G22)</f>
-        <v>Aperol_pilot03_novice</v>
+        <f>CONCATENATE(C22,"_",D22,"_",E22,"_",F22,"_",G22,"_",Q22)</f>
+        <v>Aperol_pilot_01_03_novice_B</v>
       </c>
       <c r="L22" s="173" t="s">
         <v>263</v>
@@ -5913,216 +5950,216 @@
         <v>10788</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="188" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="195" t="s">
+    <row r="32" spans="1:30" s="212" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="206" t="s">
         <v>266</v>
       </c>
-      <c r="B32" s="183">
+      <c r="B32" s="207">
         <v>4</v>
       </c>
-      <c r="C32" s="173" t="s">
+      <c r="C32" s="207" t="s">
         <v>273</v>
       </c>
-      <c r="D32" s="183" t="s">
+      <c r="D32" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="184" t="s">
+      <c r="E32" s="208" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="184" t="s">
+      <c r="F32" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="185" t="s">
+      <c r="G32" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="183">
-        <v>1</v>
-      </c>
-      <c r="I32" s="183">
-        <v>1</v>
-      </c>
-      <c r="J32" s="183" t="s">
+      <c r="H32" s="207">
+        <v>1</v>
+      </c>
+      <c r="I32" s="207">
+        <v>1</v>
+      </c>
+      <c r="J32" s="207" t="s">
         <v>267</v>
       </c>
-      <c r="K32" s="183" t="str">
-        <f>CONCATENATE(C32,"_",D32,F32,"_",G32)</f>
-        <v>Aperol_pilot04_novice</v>
-      </c>
-      <c r="L32" s="183" t="s">
+      <c r="K32" s="207" t="str">
+        <f>CONCATENATE(C32,"_",D32,"_",E32,"_",F32,"_",G32,"_",Q32)</f>
+        <v>Aperol_pilot_01_04_novice_C</v>
+      </c>
+      <c r="L32" s="207" t="s">
         <v>264</v>
       </c>
-      <c r="M32" s="186" t="s">
+      <c r="M32" s="210" t="s">
         <v>259</v>
       </c>
-      <c r="N32" s="183" t="s">
+      <c r="N32" s="207" t="s">
         <v>47</v>
       </c>
-      <c r="O32" s="183" t="s">
+      <c r="O32" s="207" t="s">
         <v>257</v>
       </c>
-      <c r="P32" s="183">
+      <c r="P32" s="207">
         <v>0.6</v>
       </c>
-      <c r="Q32" s="183" t="s">
+      <c r="Q32" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="R32" s="183" t="s">
+      <c r="R32" s="207" t="s">
         <v>28</v>
       </c>
-      <c r="S32" s="183" t="s">
+      <c r="S32" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="T32" s="187" t="s">
+      <c r="T32" s="211" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="183">
+      <c r="U32" s="207">
         <v>23</v>
       </c>
-      <c r="V32" s="183">
+      <c r="V32" s="207">
         <v>3</v>
       </c>
-      <c r="W32" s="183">
+      <c r="W32" s="207">
         <v>1993</v>
       </c>
-      <c r="X32" s="183" t="str">
+      <c r="X32" s="207" t="str">
         <f t="shared" si="26"/>
         <v>23/3/1993</v>
       </c>
-      <c r="Y32" s="183">
+      <c r="Y32" s="207">
         <v>29</v>
       </c>
-      <c r="Z32" s="183">
+      <c r="Z32" s="207">
         <v>7</v>
       </c>
-      <c r="AA32" s="183">
+      <c r="AA32" s="207">
         <v>2020</v>
       </c>
-      <c r="AB32" s="183" t="str">
+      <c r="AB32" s="207" t="str">
         <f t="shared" si="27"/>
         <v>29/7/2020</v>
       </c>
-      <c r="AC32" s="183">
+      <c r="AC32" s="207">
         <f t="shared" si="28"/>
         <v>328</v>
       </c>
-      <c r="AD32" s="183">
+      <c r="AD32" s="207">
         <f t="shared" si="29"/>
         <v>9990</v>
       </c>
     </row>
-    <row r="33" spans="1:30" s="193" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="193" t="s">
+    <row r="33" spans="1:30" s="213" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="213" t="s">
         <v>267</v>
       </c>
-      <c r="B33" s="194">
+      <c r="B33" s="214">
         <f t="shared" ref="B33:B41" si="84">B32</f>
         <v>4</v>
       </c>
-      <c r="C33" s="194" t="str">
+      <c r="C33" s="214" t="str">
         <f t="shared" ref="C33:C41" si="85">C32</f>
         <v>Aperol</v>
       </c>
-      <c r="D33" s="194" t="str">
+      <c r="D33" s="214" t="str">
         <f t="shared" ref="D33:D41" si="86">D32</f>
         <v>pilot</v>
       </c>
-      <c r="E33" s="194" t="str">
+      <c r="E33" s="214" t="str">
         <f t="shared" ref="E33:E41" si="87">E32</f>
         <v>01</v>
       </c>
-      <c r="F33" s="194" t="str">
+      <c r="F33" s="214" t="str">
         <f t="shared" ref="F33:F41" si="88">F32</f>
         <v>04</v>
       </c>
-      <c r="G33" s="194" t="str">
+      <c r="G33" s="214" t="str">
         <f t="shared" ref="G33:G41" si="89">G32</f>
         <v>novice</v>
       </c>
-      <c r="H33" s="194">
+      <c r="H33" s="214">
         <f t="shared" ref="H33:H41" si="90">H32</f>
         <v>1</v>
       </c>
-      <c r="I33" s="194">
+      <c r="I33" s="214">
         <f t="shared" ref="I33:I41" si="91">I32</f>
         <v>1</v>
       </c>
-      <c r="J33" s="194" t="s">
+      <c r="J33" s="214" t="s">
         <v>269</v>
       </c>
-      <c r="K33" s="173" t="str">
+      <c r="K33" s="207" t="str">
         <f t="shared" ref="K33:K41" si="92">CONCATENATE(C33,"_",D33,"_",E33,"_",F33,"_",G33,"_",Q33,"_",J33)</f>
         <v>Aperol_pilot_01_04_novice_C_cam1</v>
       </c>
-      <c r="L33" s="194"/>
-      <c r="M33" s="194" t="str">
+      <c r="L33" s="214"/>
+      <c r="M33" s="214" t="str">
         <f t="shared" ref="M33:M41" si="93">M32</f>
         <v>m</v>
       </c>
-      <c r="N33" s="194" t="str">
+      <c r="N33" s="214" t="str">
         <f t="shared" ref="N33:N41" si="94">N32</f>
         <v>gym</v>
       </c>
-      <c r="O33" s="194" t="str">
+      <c r="O33" s="214" t="str">
         <f t="shared" ref="O33:O41" si="95">O32</f>
         <v>philosophy</v>
       </c>
-      <c r="P33" s="194">
+      <c r="P33" s="214">
         <f t="shared" ref="P33:P41" si="96">P32</f>
         <v>0.6</v>
       </c>
-      <c r="Q33" s="194" t="str">
+      <c r="Q33" s="214" t="str">
         <f t="shared" ref="Q33:Q41" si="97">Q32</f>
         <v>C</v>
       </c>
-      <c r="R33" s="194" t="str">
+      <c r="R33" s="214" t="str">
         <f t="shared" ref="R33:R41" si="98">R32</f>
         <v>lab</v>
       </c>
-      <c r="S33" s="194" t="str">
+      <c r="S33" s="214" t="str">
         <f t="shared" ref="S33:S41" si="99">S32</f>
         <v>MK</v>
       </c>
-      <c r="T33" s="194" t="str">
+      <c r="T33" s="214" t="str">
         <f t="shared" ref="T33:T41" si="100">T32</f>
         <v>C</v>
       </c>
-      <c r="U33" s="194">
+      <c r="U33" s="214">
         <f t="shared" ref="U33:U41" si="101">U32</f>
         <v>23</v>
       </c>
-      <c r="V33" s="194">
+      <c r="V33" s="214">
         <f t="shared" ref="V33:V41" si="102">V32</f>
         <v>3</v>
       </c>
-      <c r="W33" s="194">
+      <c r="W33" s="214">
         <f t="shared" ref="W33:W41" si="103">W32</f>
         <v>1993</v>
       </c>
-      <c r="X33" s="194" t="str">
+      <c r="X33" s="214" t="str">
         <f t="shared" ref="X33:X41" si="104">X32</f>
         <v>23/3/1993</v>
       </c>
-      <c r="Y33" s="194">
+      <c r="Y33" s="214">
         <f t="shared" ref="Y33:Y41" si="105">Y32</f>
         <v>29</v>
       </c>
-      <c r="Z33" s="194">
+      <c r="Z33" s="214">
         <f t="shared" ref="Z33:Z41" si="106">Z32</f>
         <v>7</v>
       </c>
-      <c r="AA33" s="194">
+      <c r="AA33" s="214">
         <f t="shared" ref="AA33:AA41" si="107">AA32</f>
         <v>2020</v>
       </c>
-      <c r="AB33" s="194" t="str">
+      <c r="AB33" s="214" t="str">
         <f t="shared" ref="AB33:AB41" si="108">AB32</f>
         <v>29/7/2020</v>
       </c>
-      <c r="AC33" s="194">
+      <c r="AC33" s="214">
         <f t="shared" ref="AC33:AC41" si="109">AC32</f>
         <v>328</v>
       </c>
-      <c r="AD33" s="194">
+      <c r="AD33" s="214">
         <f t="shared" ref="AD33:AD41" si="110">AD32</f>
         <v>9990</v>
       </c>
@@ -6946,124 +6983,124 @@
         <v>9990</v>
       </c>
     </row>
-    <row r="41" spans="1:30" s="193" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="193" t="s">
+    <row r="41" spans="1:30" s="204" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="204" t="s">
         <v>267</v>
       </c>
-      <c r="B41" s="194">
+      <c r="B41" s="205">
         <f t="shared" si="84"/>
         <v>4</v>
       </c>
-      <c r="C41" s="194" t="str">
+      <c r="C41" s="205" t="str">
         <f t="shared" si="85"/>
         <v>Aperol</v>
       </c>
-      <c r="D41" s="194" t="str">
+      <c r="D41" s="205" t="str">
         <f t="shared" si="86"/>
         <v>pilot</v>
       </c>
-      <c r="E41" s="194" t="str">
+      <c r="E41" s="205" t="str">
         <f t="shared" si="87"/>
         <v>01</v>
       </c>
-      <c r="F41" s="194" t="str">
+      <c r="F41" s="205" t="str">
         <f t="shared" si="88"/>
         <v>04</v>
       </c>
-      <c r="G41" s="194" t="str">
+      <c r="G41" s="205" t="str">
         <f t="shared" si="89"/>
         <v>novice</v>
       </c>
-      <c r="H41" s="194">
+      <c r="H41" s="205">
         <f t="shared" si="90"/>
         <v>1</v>
       </c>
-      <c r="I41" s="194">
+      <c r="I41" s="205">
         <f t="shared" si="91"/>
         <v>1</v>
       </c>
-      <c r="J41" s="194" t="s">
+      <c r="J41" s="205" t="s">
         <v>275</v>
       </c>
-      <c r="K41" s="173" t="str">
+      <c r="K41" s="203" t="str">
         <f t="shared" si="92"/>
         <v>Aperol_pilot_01_04_novice_C_quest</v>
       </c>
-      <c r="L41" s="194"/>
-      <c r="M41" s="194" t="str">
+      <c r="L41" s="205"/>
+      <c r="M41" s="205" t="str">
         <f t="shared" si="93"/>
         <v>m</v>
       </c>
-      <c r="N41" s="194" t="str">
+      <c r="N41" s="205" t="str">
         <f t="shared" si="94"/>
         <v>gym</v>
       </c>
-      <c r="O41" s="194" t="str">
+      <c r="O41" s="205" t="str">
         <f t="shared" si="95"/>
         <v>philosophy</v>
       </c>
-      <c r="P41" s="194">
+      <c r="P41" s="205">
         <f t="shared" si="96"/>
         <v>0.6</v>
       </c>
-      <c r="Q41" s="194" t="str">
+      <c r="Q41" s="205" t="str">
         <f t="shared" si="97"/>
         <v>C</v>
       </c>
-      <c r="R41" s="194" t="str">
+      <c r="R41" s="205" t="str">
         <f t="shared" si="98"/>
         <v>lab</v>
       </c>
-      <c r="S41" s="194" t="str">
+      <c r="S41" s="205" t="str">
         <f t="shared" si="99"/>
         <v>MK</v>
       </c>
-      <c r="T41" s="194" t="str">
+      <c r="T41" s="205" t="str">
         <f t="shared" si="100"/>
         <v>C</v>
       </c>
-      <c r="U41" s="194">
+      <c r="U41" s="205">
         <f t="shared" si="101"/>
         <v>23</v>
       </c>
-      <c r="V41" s="194">
+      <c r="V41" s="205">
         <f t="shared" si="102"/>
         <v>3</v>
       </c>
-      <c r="W41" s="194">
+      <c r="W41" s="205">
         <f t="shared" si="103"/>
         <v>1993</v>
       </c>
-      <c r="X41" s="194" t="str">
+      <c r="X41" s="205" t="str">
         <f t="shared" si="104"/>
         <v>23/3/1993</v>
       </c>
-      <c r="Y41" s="194">
+      <c r="Y41" s="205">
         <f t="shared" si="105"/>
         <v>29</v>
       </c>
-      <c r="Z41" s="194">
+      <c r="Z41" s="205">
         <f t="shared" si="106"/>
         <v>7</v>
       </c>
-      <c r="AA41" s="194">
+      <c r="AA41" s="205">
         <f t="shared" si="107"/>
         <v>2020</v>
       </c>
-      <c r="AB41" s="194" t="str">
+      <c r="AB41" s="205" t="str">
         <f t="shared" si="108"/>
         <v>29/7/2020</v>
       </c>
-      <c r="AC41" s="194">
+      <c r="AC41" s="205">
         <f t="shared" si="109"/>
         <v>328</v>
       </c>
-      <c r="AD41" s="194">
+      <c r="AD41" s="205">
         <f t="shared" si="110"/>
         <v>9990</v>
       </c>
     </row>
-    <row r="42" spans="1:30" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" s="1" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A42" s="195" t="s">
         <v>266</v>
       </c>
@@ -7080,7 +7117,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>39</v>
@@ -7094,9 +7131,9 @@
       <c r="J42" s="181" t="s">
         <v>267</v>
       </c>
-      <c r="K42" s="181" t="str">
-        <f>CONCATENATE(C42,"_",D42,F42,"_",G42)</f>
-        <v>Aperol_pilot02_novice</v>
+      <c r="K42" s="173" t="str">
+        <f>CONCATENATE(C42,"_",D42,"_",E42,"_",F42,"_",G42,"_",Q42)</f>
+        <v>Aperol_pilot_02_01_novice_A</v>
       </c>
       <c r="L42" s="181" t="s">
         <v>262</v>
@@ -7182,7 +7219,7 @@
       </c>
       <c r="F43" s="194" t="str">
         <f t="shared" ref="F43:F51" si="115">F42</f>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="G43" s="194" t="str">
         <f t="shared" ref="G43:G51" si="116">G42</f>
@@ -7201,7 +7238,7 @@
       </c>
       <c r="K43" s="173" t="str">
         <f t="shared" ref="K43:K51" si="119">CONCATENATE(C43,"_",D43,"_",E43,"_",F43,"_",G43,"_",Q43,"_",J43)</f>
-        <v>Aperol_pilot_02_02_novice_A_cam1</v>
+        <v>Aperol_pilot_02_01_novice_A_cam1</v>
       </c>
       <c r="L43" s="194"/>
       <c r="M43" s="194" t="str">
@@ -7299,7 +7336,7 @@
       </c>
       <c r="F44" s="194" t="str">
         <f t="shared" si="115"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="G44" s="194" t="str">
         <f t="shared" si="116"/>
@@ -7318,7 +7355,7 @@
       </c>
       <c r="K44" s="173" t="str">
         <f t="shared" si="119"/>
-        <v>Aperol_pilot_02_02_novice_A_cam2</v>
+        <v>Aperol_pilot_02_01_novice_A_cam2</v>
       </c>
       <c r="L44" s="194"/>
       <c r="M44" s="194" t="str">
@@ -7416,7 +7453,7 @@
       </c>
       <c r="F45" s="194" t="str">
         <f t="shared" si="115"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="G45" s="194" t="str">
         <f t="shared" si="116"/>
@@ -7435,7 +7472,7 @@
       </c>
       <c r="K45" s="173" t="str">
         <f t="shared" si="119"/>
-        <v>Aperol_pilot_02_02_novice_A_cam3</v>
+        <v>Aperol_pilot_02_01_novice_A_cam3</v>
       </c>
       <c r="L45" s="194"/>
       <c r="M45" s="194" t="str">
@@ -7533,7 +7570,7 @@
       </c>
       <c r="F46" s="194" t="str">
         <f t="shared" si="115"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="G46" s="194" t="str">
         <f t="shared" si="116"/>
@@ -7552,7 +7589,7 @@
       </c>
       <c r="K46" s="173" t="str">
         <f t="shared" si="119"/>
-        <v>Aperol_pilot_02_02_novice_A_cam4</v>
+        <v>Aperol_pilot_02_01_novice_A_cam4</v>
       </c>
       <c r="L46" s="194"/>
       <c r="M46" s="194" t="str">
@@ -7650,7 +7687,7 @@
       </c>
       <c r="F47" s="194" t="str">
         <f t="shared" si="115"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="G47" s="194" t="str">
         <f t="shared" si="116"/>
@@ -7669,7 +7706,7 @@
       </c>
       <c r="K47" s="173" t="str">
         <f t="shared" si="119"/>
-        <v>Aperol_pilot_02_02_novice_A_glasses</v>
+        <v>Aperol_pilot_02_01_novice_A_glasses</v>
       </c>
       <c r="L47" s="194"/>
       <c r="M47" s="194" t="str">
@@ -7767,7 +7804,7 @@
       </c>
       <c r="F48" s="194" t="str">
         <f t="shared" si="115"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="G48" s="194" t="str">
         <f t="shared" si="116"/>
@@ -7786,7 +7823,7 @@
       </c>
       <c r="K48" s="173" t="str">
         <f t="shared" si="119"/>
-        <v>Aperol_pilot_02_02_novice_A_ambient</v>
+        <v>Aperol_pilot_02_01_novice_A_ambient</v>
       </c>
       <c r="L48" s="194"/>
       <c r="M48" s="194" t="str">
@@ -7884,7 +7921,7 @@
       </c>
       <c r="F49" s="194" t="str">
         <f t="shared" si="115"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="G49" s="194" t="str">
         <f t="shared" si="116"/>
@@ -7903,7 +7940,7 @@
       </c>
       <c r="K49" s="173" t="str">
         <f t="shared" si="119"/>
-        <v>Aperol_pilot_02_02_novice_A_ETrawdata</v>
+        <v>Aperol_pilot_02_01_novice_A_ETrawdata</v>
       </c>
       <c r="L49" s="194"/>
       <c r="M49" s="194" t="str">
@@ -8001,7 +8038,7 @@
       </c>
       <c r="F50" s="194" t="str">
         <f t="shared" si="115"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="G50" s="194" t="str">
         <f t="shared" si="116"/>
@@ -8020,7 +8057,7 @@
       </c>
       <c r="K50" s="173" t="str">
         <f t="shared" si="119"/>
-        <v>Aperol_pilot_02_02_novice_A_maxcoding</v>
+        <v>Aperol_pilot_02_01_novice_A_maxcoding</v>
       </c>
       <c r="L50" s="194"/>
       <c r="M50" s="194" t="str">
@@ -8118,7 +8155,7 @@
       </c>
       <c r="F51" s="194" t="str">
         <f t="shared" si="115"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="G51" s="194" t="str">
         <f t="shared" si="116"/>
@@ -8137,7 +8174,7 @@
       </c>
       <c r="K51" s="173" t="str">
         <f t="shared" si="119"/>
-        <v>Aperol_pilot_02_02_novice_A_quest</v>
+        <v>Aperol_pilot_02_01_novice_A_quest</v>
       </c>
       <c r="L51" s="194"/>
       <c r="M51" s="194" t="str">
@@ -8244,9 +8281,9 @@
       <c r="J52" s="181" t="s">
         <v>267</v>
       </c>
-      <c r="K52" s="181" t="str">
-        <f>CONCATENATE(C52,"_",D52,F52,"_",G52)</f>
-        <v>Aperol_pilot02_novice</v>
+      <c r="K52" s="173" t="str">
+        <f>CONCATENATE(C52,"_",D52,"_",E52,"_",F52,"_",G52,"_",Q52)</f>
+        <v>Aperol_pilot_02_02_novice_B</v>
       </c>
       <c r="L52" s="181" t="s">
         <v>262</v>
@@ -9380,7 +9417,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>39</v>
@@ -9394,9 +9431,9 @@
       <c r="J62" s="181" t="s">
         <v>267</v>
       </c>
-      <c r="K62" s="181" t="str">
-        <f>CONCATENATE(C62,"_",D62,F62,"_",G62)</f>
-        <v>Aperol_pilot02_novice</v>
+      <c r="K62" s="173" t="str">
+        <f>CONCATENATE(C62,"_",D62,"_",E62,"_",F62,"_",G62,"_",Q62)</f>
+        <v>Aperol_pilot_02_03_novice_C</v>
       </c>
       <c r="L62" s="181" t="s">
         <v>262</v>
@@ -9482,7 +9519,7 @@
       </c>
       <c r="F63" s="194" t="str">
         <f t="shared" ref="F63:F71" si="171">F62</f>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="G63" s="194" t="str">
         <f t="shared" ref="G63:G71" si="172">G62</f>
@@ -9501,7 +9538,7 @@
       </c>
       <c r="K63" s="173" t="str">
         <f t="shared" ref="K63:K71" si="175">CONCATENATE(C63,"_",D63,"_",E63,"_",F63,"_",G63,"_",Q63,"_",J63)</f>
-        <v>Aperol_pilot_02_02_novice_C_cam1</v>
+        <v>Aperol_pilot_02_03_novice_C_cam1</v>
       </c>
       <c r="L63" s="194"/>
       <c r="M63" s="194" t="str">
@@ -9599,7 +9636,7 @@
       </c>
       <c r="F64" s="194" t="str">
         <f t="shared" si="171"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="G64" s="194" t="str">
         <f t="shared" si="172"/>
@@ -9618,7 +9655,7 @@
       </c>
       <c r="K64" s="173" t="str">
         <f t="shared" si="175"/>
-        <v>Aperol_pilot_02_02_novice_C_cam2</v>
+        <v>Aperol_pilot_02_03_novice_C_cam2</v>
       </c>
       <c r="L64" s="194"/>
       <c r="M64" s="194" t="str">
@@ -9716,7 +9753,7 @@
       </c>
       <c r="F65" s="194" t="str">
         <f t="shared" si="171"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="G65" s="194" t="str">
         <f t="shared" si="172"/>
@@ -9735,7 +9772,7 @@
       </c>
       <c r="K65" s="173" t="str">
         <f t="shared" si="175"/>
-        <v>Aperol_pilot_02_02_novice_C_cam3</v>
+        <v>Aperol_pilot_02_03_novice_C_cam3</v>
       </c>
       <c r="L65" s="194"/>
       <c r="M65" s="194" t="str">
@@ -9833,7 +9870,7 @@
       </c>
       <c r="F66" s="194" t="str">
         <f t="shared" si="171"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="G66" s="194" t="str">
         <f t="shared" si="172"/>
@@ -9852,7 +9889,7 @@
       </c>
       <c r="K66" s="173" t="str">
         <f t="shared" si="175"/>
-        <v>Aperol_pilot_02_02_novice_C_cam4</v>
+        <v>Aperol_pilot_02_03_novice_C_cam4</v>
       </c>
       <c r="L66" s="194"/>
       <c r="M66" s="194" t="str">
@@ -9950,7 +9987,7 @@
       </c>
       <c r="F67" s="194" t="str">
         <f t="shared" si="171"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="G67" s="194" t="str">
         <f t="shared" si="172"/>
@@ -9969,7 +10006,7 @@
       </c>
       <c r="K67" s="173" t="str">
         <f t="shared" si="175"/>
-        <v>Aperol_pilot_02_02_novice_C_glasses</v>
+        <v>Aperol_pilot_02_03_novice_C_glasses</v>
       </c>
       <c r="L67" s="194"/>
       <c r="M67" s="194" t="str">
@@ -10067,7 +10104,7 @@
       </c>
       <c r="F68" s="194" t="str">
         <f t="shared" si="171"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="G68" s="194" t="str">
         <f t="shared" si="172"/>
@@ -10086,7 +10123,7 @@
       </c>
       <c r="K68" s="173" t="str">
         <f t="shared" si="175"/>
-        <v>Aperol_pilot_02_02_novice_C_ambient</v>
+        <v>Aperol_pilot_02_03_novice_C_ambient</v>
       </c>
       <c r="L68" s="194"/>
       <c r="M68" s="194" t="str">
@@ -10184,7 +10221,7 @@
       </c>
       <c r="F69" s="194" t="str">
         <f t="shared" si="171"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="G69" s="194" t="str">
         <f t="shared" si="172"/>
@@ -10203,7 +10240,7 @@
       </c>
       <c r="K69" s="173" t="str">
         <f t="shared" si="175"/>
-        <v>Aperol_pilot_02_02_novice_C_ETrawdata</v>
+        <v>Aperol_pilot_02_03_novice_C_ETrawdata</v>
       </c>
       <c r="L69" s="194"/>
       <c r="M69" s="194" t="str">
@@ -10301,7 +10338,7 @@
       </c>
       <c r="F70" s="194" t="str">
         <f t="shared" si="171"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="G70" s="194" t="str">
         <f t="shared" si="172"/>
@@ -10320,7 +10357,7 @@
       </c>
       <c r="K70" s="173" t="str">
         <f t="shared" si="175"/>
-        <v>Aperol_pilot_02_02_novice_C_maxcoding</v>
+        <v>Aperol_pilot_02_03_novice_C_maxcoding</v>
       </c>
       <c r="L70" s="194"/>
       <c r="M70" s="194" t="str">
@@ -10418,7 +10455,7 @@
       </c>
       <c r="F71" s="194" t="str">
         <f t="shared" si="171"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="G71" s="194" t="str">
         <f t="shared" si="172"/>
@@ -10437,7 +10474,7 @@
       </c>
       <c r="K71" s="173" t="str">
         <f t="shared" si="175"/>
-        <v>Aperol_pilot_02_02_novice_C_quest</v>
+        <v>Aperol_pilot_02_03_novice_C_quest</v>
       </c>
       <c r="L71" s="194"/>
       <c r="M71" s="194" t="str">
@@ -10530,7 +10567,7 @@
         <v>41</v>
       </c>
       <c r="F72" s="184" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G72" s="190" t="s">
         <v>39</v>
@@ -10544,9 +10581,9 @@
       <c r="J72" s="189" t="s">
         <v>267</v>
       </c>
-      <c r="K72" s="189" t="str">
-        <f>CONCATENATE(C72,"_",D72,F72,"_",G72)</f>
-        <v>Aperol_pilot02_novice</v>
+      <c r="K72" s="173" t="str">
+        <f>CONCATENATE(C72,"_",D72,"_",E72,"_",F72,"_",G72,"_",Q72)</f>
+        <v>Aperol_pilot_02_04_novice_D</v>
       </c>
       <c r="L72" s="192" t="s">
         <v>263</v>
@@ -10632,7 +10669,7 @@
       </c>
       <c r="F73" s="194" t="str">
         <f t="shared" ref="F73:F81" si="198">F72</f>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="G73" s="194" t="str">
         <f t="shared" ref="G73:G81" si="199">G72</f>
@@ -10651,7 +10688,7 @@
       </c>
       <c r="K73" s="173" t="str">
         <f t="shared" ref="K73:K81" si="202">CONCATENATE(C73,"_",D73,"_",E73,"_",F73,"_",G73,"_",Q73,"_",J73)</f>
-        <v>Aperol_pilot_02_02_novice_D_cam1</v>
+        <v>Aperol_pilot_02_04_novice_D_cam1</v>
       </c>
       <c r="L73" s="194"/>
       <c r="M73" s="194" t="str">
@@ -10749,7 +10786,7 @@
       </c>
       <c r="F74" s="194" t="str">
         <f t="shared" si="198"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="G74" s="194" t="str">
         <f t="shared" si="199"/>
@@ -10768,7 +10805,7 @@
       </c>
       <c r="K74" s="173" t="str">
         <f t="shared" si="202"/>
-        <v>Aperol_pilot_02_02_novice_D_cam2</v>
+        <v>Aperol_pilot_02_04_novice_D_cam2</v>
       </c>
       <c r="L74" s="194"/>
       <c r="M74" s="194" t="str">
@@ -10866,7 +10903,7 @@
       </c>
       <c r="F75" s="194" t="str">
         <f t="shared" si="198"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="G75" s="194" t="str">
         <f t="shared" si="199"/>
@@ -10885,7 +10922,7 @@
       </c>
       <c r="K75" s="173" t="str">
         <f t="shared" si="202"/>
-        <v>Aperol_pilot_02_02_novice_D_cam3</v>
+        <v>Aperol_pilot_02_04_novice_D_cam3</v>
       </c>
       <c r="L75" s="194"/>
       <c r="M75" s="194" t="str">
@@ -10983,7 +11020,7 @@
       </c>
       <c r="F76" s="194" t="str">
         <f t="shared" si="198"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="G76" s="194" t="str">
         <f t="shared" si="199"/>
@@ -11002,7 +11039,7 @@
       </c>
       <c r="K76" s="173" t="str">
         <f t="shared" si="202"/>
-        <v>Aperol_pilot_02_02_novice_D_cam4</v>
+        <v>Aperol_pilot_02_04_novice_D_cam4</v>
       </c>
       <c r="L76" s="194"/>
       <c r="M76" s="194" t="str">
@@ -11100,7 +11137,7 @@
       </c>
       <c r="F77" s="194" t="str">
         <f t="shared" si="198"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="G77" s="194" t="str">
         <f t="shared" si="199"/>
@@ -11119,7 +11156,7 @@
       </c>
       <c r="K77" s="173" t="str">
         <f t="shared" si="202"/>
-        <v>Aperol_pilot_02_02_novice_D_glasses</v>
+        <v>Aperol_pilot_02_04_novice_D_glasses</v>
       </c>
       <c r="L77" s="194"/>
       <c r="M77" s="194" t="str">
@@ -11217,7 +11254,7 @@
       </c>
       <c r="F78" s="194" t="str">
         <f t="shared" si="198"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="G78" s="194" t="str">
         <f t="shared" si="199"/>
@@ -11236,7 +11273,7 @@
       </c>
       <c r="K78" s="173" t="str">
         <f t="shared" si="202"/>
-        <v>Aperol_pilot_02_02_novice_D_ambient</v>
+        <v>Aperol_pilot_02_04_novice_D_ambient</v>
       </c>
       <c r="L78" s="194"/>
       <c r="M78" s="194" t="str">
@@ -11334,7 +11371,7 @@
       </c>
       <c r="F79" s="194" t="str">
         <f t="shared" si="198"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="G79" s="194" t="str">
         <f t="shared" si="199"/>
@@ -11353,7 +11390,7 @@
       </c>
       <c r="K79" s="173" t="str">
         <f t="shared" si="202"/>
-        <v>Aperol_pilot_02_02_novice_D_ETrawdata</v>
+        <v>Aperol_pilot_02_04_novice_D_ETrawdata</v>
       </c>
       <c r="L79" s="194"/>
       <c r="M79" s="194" t="str">
@@ -11451,7 +11488,7 @@
       </c>
       <c r="F80" s="194" t="str">
         <f t="shared" si="198"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="G80" s="194" t="str">
         <f t="shared" si="199"/>
@@ -11470,7 +11507,7 @@
       </c>
       <c r="K80" s="173" t="str">
         <f t="shared" si="202"/>
-        <v>Aperol_pilot_02_02_novice_D_maxcoding</v>
+        <v>Aperol_pilot_02_04_novice_D_maxcoding</v>
       </c>
       <c r="L80" s="194"/>
       <c r="M80" s="194" t="str">
@@ -11568,7 +11605,7 @@
       </c>
       <c r="F81" s="194" t="str">
         <f t="shared" si="198"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="G81" s="194" t="str">
         <f t="shared" si="199"/>
@@ -11587,7 +11624,7 @@
       </c>
       <c r="K81" s="173" t="str">
         <f t="shared" si="202"/>
-        <v>Aperol_pilot_02_02_novice_D_quest</v>
+        <v>Aperol_pilot_02_04_novice_D_quest</v>
       </c>
       <c r="L81" s="194"/>
       <c r="M81" s="194" t="str">
@@ -18712,11 +18749,11 @@
       <c r="M56" s="105"/>
       <c r="O56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -18735,11 +18772,11 @@
       <c r="M57" s="105"/>
       <c r="O57">
         <f t="shared" ref="O57:O66" ca="1" si="0">RANDBETWEEN(1,11)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q57">
         <f t="shared" ref="Q57:Q66" ca="1" si="1">RANDBETWEEN(1,11)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -18755,11 +18792,11 @@
       <c r="M58" s="105"/>
       <c r="O58">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q58">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -18775,11 +18812,11 @@
       <c r="M59" s="105"/>
       <c r="O59">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q59">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -18798,11 +18835,11 @@
       <c r="M60" s="105"/>
       <c r="O60">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q60">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -18830,11 +18867,11 @@
       <c r="M61" s="105"/>
       <c r="O61">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q61">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -18862,11 +18899,11 @@
       <c r="M62" s="105"/>
       <c r="O62">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q62">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -18892,11 +18929,11 @@
       <c r="M63" s="105"/>
       <c r="O63">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q63">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -18922,11 +18959,11 @@
       <c r="M64" s="105"/>
       <c r="O64">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q64">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -18944,11 +18981,11 @@
       <c r="M65" s="105"/>
       <c r="O65">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -18964,11 +19001,11 @@
       <c r="M66" s="105"/>
       <c r="O66">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
